--- a/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
@@ -526,6 +526,9 @@
       <c r="A11" t="str">
         <v>4</v>
       </c>
+      <c r="C11" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
@@ -529,6 +529,9 @@
       <c r="C11" t="str">
         <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -590,7 +593,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>050121344953290</v>
+        <v>0501213449532931</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,9 +533,90 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>15_深紫洋桔梗_Dark Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>5</v>
+      </c>
+      <c r="C15" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F17" t="str">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>543_柔丽思红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -593,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0501213449532931</v>
+        <v>0501213449532931421034402201217100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
@@ -613,6 +613,9 @@
       <c r="C21" t="str">
         <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -674,7 +677,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0501213449532931421034402201217100</v>
+        <v>0501213449532931421034402201217102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,12 +614,40 @@
         <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>2</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>153_白雪山_Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>7</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">463_玉兰枝_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8</v>
+      </c>
+      <c r="C24" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L24"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -677,7 +705,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0501213449532931421034402201217102</v>
+        <v>05012134495329314210344022012171026088.5</v>
       </c>
     </row>
   </sheetData>
